--- a/Everything.xlsx
+++ b/Everything.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projects\Tobacco-IP-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49F5FC-E82D-4E85-89AF-85D0291D19CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A7E54-4BB3-439D-8743-D812A37D4F70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13158" uniqueCount="5825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13185" uniqueCount="5825">
   <si>
     <t>APP. NUMBER</t>
   </si>
@@ -17920,9 +17920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1277" sqref="E1277"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C561" sqref="C561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34085,89 +34085,89 @@
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+      <c r="A558" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="3" t="s">
         <v>1503</v>
       </c>
-      <c r="C558" t="s">
+      <c r="C558" s="3" t="s">
         <v>2203</v>
       </c>
-      <c r="D558" t="s">
-        <v>2971</v>
-      </c>
-      <c r="E558" t="s">
+      <c r="D558" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E558" s="3" t="s">
         <v>2973</v>
       </c>
-      <c r="F558" t="s">
+      <c r="F558" s="3" t="s">
         <v>3155</v>
       </c>
-      <c r="G558" t="s">
+      <c r="G558" s="3" t="s">
         <v>3587</v>
       </c>
-      <c r="H558" t="s">
+      <c r="H558" s="3" t="s">
         <v>4125</v>
       </c>
-      <c r="I558" s="2" t="s">
+      <c r="I558" s="4" t="s">
         <v>4996</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+      <c r="A559" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="3" t="s">
         <v>1508</v>
       </c>
-      <c r="C559" t="s">
+      <c r="C559" s="3" t="s">
         <v>2209</v>
       </c>
-      <c r="D559" t="s">
-        <v>2971</v>
-      </c>
-      <c r="E559" t="s">
+      <c r="D559" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E559" s="3" t="s">
         <v>2973</v>
       </c>
-      <c r="F559" t="s">
+      <c r="F559" s="3" t="s">
         <v>3159</v>
       </c>
-      <c r="G559" t="s">
+      <c r="G559" s="3" t="s">
         <v>3587</v>
       </c>
-      <c r="H559" t="s">
+      <c r="H559" s="3" t="s">
         <v>4131</v>
       </c>
-      <c r="I559" s="2" t="s">
+      <c r="I559" s="4" t="s">
         <v>5004</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+      <c r="A560" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="3" t="s">
         <v>1479</v>
       </c>
-      <c r="C560" t="s">
+      <c r="C560" s="3" t="s">
         <v>2163</v>
       </c>
-      <c r="D560" t="s">
-        <v>2971</v>
-      </c>
-      <c r="E560" t="s">
-        <v>2972</v>
-      </c>
-      <c r="F560" t="s">
+      <c r="D560" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F560" s="3" t="s">
         <v>3130</v>
       </c>
-      <c r="G560" t="s">
+      <c r="G560" s="3" t="s">
         <v>3566</v>
       </c>
-      <c r="H560" t="s">
+      <c r="H560" s="3" t="s">
         <v>4086</v>
       </c>
-      <c r="I560" s="2" t="s">
+      <c r="I560" s="4" t="s">
         <v>4951</v>
       </c>
     </row>
@@ -56435,7 +56435,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58848,10 +58848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851D484-6708-47FF-B0E0-A0AE0BCE9A5A}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61406,6 +61406,93 @@
       </c>
       <c r="I88" s="2" t="s">
         <v>4875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>462</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3587</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4125</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3159</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3587</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4131</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>417</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3130</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3566</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4086</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>4951</v>
       </c>
     </row>
   </sheetData>
@@ -61497,6 +61584,9 @@
     <hyperlink ref="I34" r:id="rId85" xr:uid="{162D5897-4F43-4E1C-B287-1CE803DDAE5F}"/>
     <hyperlink ref="I35" r:id="rId86" xr:uid="{B08CE741-F5C0-46ED-8E58-F2203429C669}"/>
     <hyperlink ref="I36" r:id="rId87" xr:uid="{320920B2-804D-48B4-B2D7-41C9DAF92DE8}"/>
+    <hyperlink ref="I91" r:id="rId88" xr:uid="{06220CEF-8397-4692-B8A1-38EF67A86E1B}"/>
+    <hyperlink ref="I89" r:id="rId89" xr:uid="{F2679ABB-139E-4136-A299-A41812A94CD9}"/>
+    <hyperlink ref="I90" r:id="rId90" xr:uid="{EB02B2DF-04D9-4BAF-BE2D-37CDA652B323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61506,8 +61596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C985F0F-6822-43AC-BF86-5650BABF2167}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
